--- a/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>238861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>230663</v>
+        <v>231129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244880</v>
+        <v>244140</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9454162567379626</v>
+        <v>0.9454162567379625</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9129675128444081</v>
+        <v>0.9148109746485241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9692379754871857</v>
+        <v>0.9663083560597958</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>549</v>
@@ -762,19 +762,19 @@
         <v>316687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>305412</v>
+        <v>305334</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>325558</v>
+        <v>324924</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8735505011875708</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8424513397329245</v>
+        <v>0.8422358869191755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8980214635812127</v>
+        <v>0.896273515554306</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>831</v>
@@ -783,19 +783,19 @@
         <v>555548</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>543184</v>
+        <v>542788</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>566967</v>
+        <v>566741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9030654866249996</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8829676075127797</v>
+        <v>0.8823242363879371</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9216270524016166</v>
+        <v>0.921260501971648</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6763</v>
+        <v>7871</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20317</v>
+        <v>20081</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.0506465720262081</v>
+        <v>0.05064657202620809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02676950433450209</v>
+        <v>0.03115246262633351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08041489484621192</v>
+        <v>0.07947989135446923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -833,19 +833,19 @@
         <v>27146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20070</v>
+        <v>20190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35354</v>
+        <v>35261</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07488027561265753</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05536243545307971</v>
+        <v>0.05569122981673433</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09752139121802315</v>
+        <v>0.09726401332012205</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>67</v>
@@ -854,19 +854,19 @@
         <v>39942</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>30920</v>
+        <v>30977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50558</v>
+        <v>50784</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06492758809172151</v>
+        <v>0.06492758809172153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05026159086047489</v>
+        <v>0.05035447743991697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08218330314066977</v>
+        <v>0.08255167983017184</v>
       </c>
     </row>
     <row r="6">
@@ -896,19 +896,19 @@
         <v>10872</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6667</v>
+        <v>6772</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16731</v>
+        <v>16947</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02998995373457259</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01838988339511404</v>
+        <v>0.01867935941518906</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04615209362888088</v>
+        <v>0.04674703321895141</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -917,19 +917,19 @@
         <v>10872</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6395</v>
+        <v>6457</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16550</v>
+        <v>16687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01767319673444043</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01039509502659716</v>
+        <v>0.01049625716398952</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02690274673379574</v>
+        <v>0.02712557723795182</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5463</v>
+        <v>5678</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003937171235829185</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02162213452133535</v>
+        <v>0.02247298658359294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -967,19 +967,19 @@
         <v>7823</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4205</v>
+        <v>4236</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12381</v>
+        <v>12608</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02157926946519914</v>
+        <v>0.02157926946519915</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01159850358840524</v>
+        <v>0.01168406563804062</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03415261365099364</v>
+        <v>0.03477707464699144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -988,19 +988,19 @@
         <v>8818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4550</v>
+        <v>5036</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14342</v>
+        <v>15081</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01433372854883839</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007396872140696283</v>
+        <v>0.008186763289449003</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02331330901750325</v>
+        <v>0.02451423543503607</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>852633</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>827589</v>
+        <v>827757</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>872364</v>
+        <v>875722</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.889542466081891</v>
+        <v>0.8895424660818908</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8634146642331428</v>
+        <v>0.863589855181548</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9101280436693201</v>
+        <v>0.9136315785116909</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1117</v>
@@ -1113,19 +1113,19 @@
         <v>859614</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>840920</v>
+        <v>838878</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>877474</v>
+        <v>876531</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.872244847555859</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8532760708090832</v>
+        <v>0.8512039756020893</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.890367603934558</v>
+        <v>0.8894101097092966</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1862</v>
@@ -1134,19 +1134,19 @@
         <v>1712246</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1678709</v>
+        <v>1678376</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1741592</v>
+        <v>1739836</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.8807734842330551</v>
+        <v>0.8807734842330552</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8635223828944273</v>
+        <v>0.863350920401201</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8958689824088806</v>
+        <v>0.8949660504538522</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>77082</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>60080</v>
+        <v>58053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99092</v>
+        <v>101411</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08041837652784713</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06268078624063203</v>
+        <v>0.0605661282798281</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1033812639502313</v>
+        <v>0.1058015038106201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -1184,19 +1184,19 @@
         <v>90407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75321</v>
+        <v>74821</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108072</v>
+        <v>108251</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09173575087175422</v>
+        <v>0.0917357508717542</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07642725170923205</v>
+        <v>0.0759204699923231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1096600948292689</v>
+        <v>0.1098420957072073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -1205,19 +1205,19 @@
         <v>167489</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142524</v>
+        <v>143169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197241</v>
+        <v>197802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0861556894445846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.073314059089652</v>
+        <v>0.07364571400792067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1014601942173744</v>
+        <v>0.1017485393577355</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>22887</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13371</v>
+        <v>13659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37161</v>
+        <v>39286</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02387744719378575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01394993508322325</v>
+        <v>0.01425066705102834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03877001553010733</v>
+        <v>0.0409867538564929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -1255,19 +1255,19 @@
         <v>22902</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15944</v>
+        <v>16252</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32544</v>
+        <v>33126</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02323811469431174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01617828956840229</v>
+        <v>0.01649116030599334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03302186985873246</v>
+        <v>0.03361245470767731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -1276,19 +1276,19 @@
         <v>45788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33203</v>
+        <v>33523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>63300</v>
+        <v>61363</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.02355333927830471</v>
+        <v>0.02355333927830472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01707958288561934</v>
+        <v>0.017244232826228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03256145943314104</v>
+        <v>0.03156487663296088</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>5906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1910</v>
+        <v>1888</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14217</v>
+        <v>13140</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.00616171019647621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001992966433211091</v>
+        <v>0.001970226405711404</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01483266762384365</v>
+        <v>0.01370905954845712</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1326,19 +1326,19 @@
         <v>12596</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7262</v>
+        <v>7779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20776</v>
+        <v>20503</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0127812868780751</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.007368264838189714</v>
+        <v>0.007893782369685425</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0210808406235143</v>
+        <v>0.02080432203019508</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -1347,19 +1347,19 @@
         <v>18502</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12065</v>
+        <v>12057</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>27501</v>
+        <v>28959</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.009517487044055525</v>
+        <v>0.009517487044055526</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.006206003843316031</v>
+        <v>0.00620215896558496</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01414616942726593</v>
+        <v>0.01489629374111644</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>287926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>268878</v>
+        <v>270390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302823</v>
+        <v>301990</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8292576113418303</v>
+        <v>0.8292576113418304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7743978597094548</v>
+        <v>0.778753763769872</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8721636101481287</v>
+        <v>0.8697655853901336</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>371</v>
@@ -1472,19 +1472,19 @@
         <v>291557</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>279403</v>
+        <v>277888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302510</v>
+        <v>301107</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8519070597867447</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.816394492251553</v>
+        <v>0.811968197174654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8839122840836608</v>
+        <v>0.8798137178001046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -1493,19 +1493,19 @@
         <v>579482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>556700</v>
+        <v>556247</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>597736</v>
+        <v>596837</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8405007120190858</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8074577173238322</v>
+        <v>0.8068004975977933</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8669772574699398</v>
+        <v>0.8656729827989244</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>49451</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>35030</v>
+        <v>35965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>67521</v>
+        <v>68308</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1424237772992995</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1008914359118065</v>
+        <v>0.1035829623897906</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1944684545194868</v>
+        <v>0.196734319434178</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>63</v>
@@ -1543,19 +1543,19 @@
         <v>43393</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>33178</v>
+        <v>34079</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>54783</v>
+        <v>55222</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1267903322331049</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09694286566850885</v>
+        <v>0.09957689714930004</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1600727841413551</v>
+        <v>0.1613553357017584</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>104</v>
@@ -1564,19 +1564,19 @@
         <v>92843</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>73753</v>
+        <v>77334</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>113007</v>
+        <v>114112</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1346633942048037</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1069736137269605</v>
+        <v>0.1121685564567967</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1639094069595558</v>
+        <v>0.165511452709009</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>8102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3240</v>
+        <v>3360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16381</v>
+        <v>17068</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02333444430555856</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009331918699514051</v>
+        <v>0.009678335514772853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04718001181872305</v>
+        <v>0.04915853202331089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1614,19 +1614,19 @@
         <v>6781</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3003</v>
+        <v>2972</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16775</v>
+        <v>15832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01981282905197954</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008774014749100735</v>
+        <v>0.008682920263272605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04901587830732763</v>
+        <v>0.04625978627183146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1635,19 +1635,19 @@
         <v>14883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8766</v>
+        <v>8514</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>27099</v>
+        <v>25271</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02158632779230908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01271382811829018</v>
+        <v>0.01234903670160645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03930560981345064</v>
+        <v>0.03665352114766132</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004984167053311537</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2575</v>
+        <v>2919</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.001489778928170876</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.007523963321714005</v>
+        <v>0.008529873496910461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1706,19 +1706,19 @@
         <v>2240</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7183</v>
+        <v>7241</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.003249565983801433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0007414761399267618</v>
+        <v>0.0007427370620296326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01041843901694249</v>
+        <v>0.01050195960657</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>1379420</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1347050</v>
+        <v>1349438</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1407631</v>
+        <v>1406993</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8851694245993049</v>
+        <v>0.885169424599305</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8643976967302097</v>
+        <v>0.8659301171644614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9032725730224219</v>
+        <v>0.9028632451102888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2037</v>
@@ -1831,19 +1831,19 @@
         <v>1467856</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1443536</v>
+        <v>1441075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1491226</v>
+        <v>1490049</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.8684070000935217</v>
+        <v>0.8684070000935218</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8540187442304091</v>
+        <v>0.8525630796216839</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8822329983608262</v>
+        <v>0.8815368579182141</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3331</v>
@@ -1852,19 +1852,19 @@
         <v>2847276</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2808700</v>
+        <v>2803751</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>2884715</v>
+        <v>2884062</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8764478757516406</v>
+        <v>0.8764478757516407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8645734262094851</v>
+        <v>0.8630499241902048</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.887972421260909</v>
+        <v>0.8877713801807402</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>139328</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114365</v>
+        <v>114209</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169145</v>
+        <v>166015</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08940657306517077</v>
+        <v>0.08940657306517079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07338792800954787</v>
+        <v>0.07328742310703519</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1085395214139311</v>
+        <v>0.1065315842770828</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>239</v>
@@ -1902,19 +1902,19 @@
         <v>160946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>142422</v>
+        <v>142027</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185214</v>
+        <v>186576</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09521828799315518</v>
+        <v>0.0952182879931552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08425892705258448</v>
+        <v>0.08402566177290272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1095752437343458</v>
+        <v>0.1103812725994622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>361</v>
@@ -1923,19 +1923,19 @@
         <v>300274</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270556</v>
+        <v>269375</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>341109</v>
+        <v>338777</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09243042892895878</v>
+        <v>0.09243042892895879</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08328240652281711</v>
+        <v>0.08291885744607752</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1050001687365482</v>
+        <v>0.1042822468581</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>30989</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20156</v>
+        <v>20704</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46384</v>
+        <v>47747</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01988530790821769</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01293401870215848</v>
+        <v>0.01328582035231568</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02976465686952889</v>
+        <v>0.03063916676946183</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>57</v>
@@ -1973,19 +1973,19 @@
         <v>40555</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30386</v>
+        <v>30017</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54024</v>
+        <v>52906</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02399269835426037</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01797672813417169</v>
+        <v>0.01775875952307243</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03196150535380104</v>
+        <v>0.03129982302747953</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>83</v>
@@ -1994,19 +1994,19 @@
         <v>71543</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>56277</v>
+        <v>57139</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92515</v>
+        <v>92979</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02202239770684627</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01732331871762747</v>
+        <v>0.01758859267090431</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02847782039505763</v>
+        <v>0.02862078553360683</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>8631</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3896</v>
+        <v>3941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18023</v>
+        <v>17431</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.005538694427306535</v>
+        <v>0.005538694427306536</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00250034419575901</v>
+        <v>0.002528895964736282</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01156543186454738</v>
+        <v>0.01118561679582531</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2044,19 +2044,19 @@
         <v>20929</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14068</v>
+        <v>15070</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29264</v>
+        <v>30164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01238201355906253</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008322727307176999</v>
+        <v>0.008915634070809926</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01731301938681816</v>
+        <v>0.01784526490029612</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2065,19 +2065,19 @@
         <v>29560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21368</v>
+        <v>21036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40437</v>
+        <v>39939</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.009099297612554224</v>
+        <v>0.009099297612554225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006577635762444619</v>
+        <v>0.006475276705461813</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01244742191704734</v>
+        <v>0.01229406910767386</v>
       </c>
     </row>
     <row r="23">
